--- a/output.xlsx
+++ b/output.xlsx
@@ -10,14 +10,15 @@
     <sheet name="matCount" sheetId="1" r:id="rId1"/>
     <sheet name="matAveRet" sheetId="2" r:id="rId2"/>
     <sheet name="matWinProb" sheetId="3" r:id="rId3"/>
-    <sheet name="historyRef" sheetId="4" r:id="rId4"/>
+    <sheet name="matRiskRet" sheetId="4" r:id="rId4"/>
+    <sheet name="historyRef" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="152">
   <si>
     <t>-3.0 ~ -2.5</t>
   </si>
@@ -67,25 +68,409 @@
     <t>4.0 ~ 4.5</t>
   </si>
   <si>
+    <t>-7.6% / 6.9%</t>
+  </si>
+  <si>
+    <t>-6.8% / 0.0%</t>
+  </si>
+  <si>
+    <t>-10.% / 3.1%</t>
+  </si>
+  <si>
+    <t>-7.2% / 6.4%</t>
+  </si>
+  <si>
+    <t>-8.6% / 5.9%</t>
+  </si>
+  <si>
+    <t>-3.1% / 9.8%</t>
+  </si>
+  <si>
+    <t>-1.5% / 13.%</t>
+  </si>
+  <si>
+    <t>-7.9% / 6.2%</t>
+  </si>
+  <si>
+    <t>-6.5% / 4.4%</t>
+  </si>
+  <si>
+    <t>-10.% / 5.6%</t>
+  </si>
+  <si>
+    <t>-10.% / 11.%</t>
+  </si>
+  <si>
+    <t>-3.0% / 4.2%</t>
+  </si>
+  <si>
+    <t>-1.1% / 13.%</t>
+  </si>
+  <si>
+    <t>-7.0% / 6.0%</t>
+  </si>
+  <si>
+    <t>-34.% / 23.%</t>
+  </si>
+  <si>
+    <t>-15.% / 20.%</t>
+  </si>
+  <si>
+    <t>-15.% / 13.%</t>
+  </si>
+  <si>
+    <t>-10.% / 8.6%</t>
+  </si>
+  <si>
+    <t>-7.7% / 9.0%</t>
+  </si>
+  <si>
+    <t>-11.% / 2.6%</t>
+  </si>
+  <si>
+    <t>-8.5% / 7.5%</t>
+  </si>
+  <si>
+    <t>-7.1% / 6.2%</t>
+  </si>
+  <si>
+    <t>-4.0% / 15.%</t>
+  </si>
+  <si>
+    <t>-9.6% / 3.6%</t>
+  </si>
+  <si>
+    <t>-4.7% / 7.6%</t>
+  </si>
+  <si>
+    <t>-5.9% / 12.%</t>
+  </si>
+  <si>
+    <t>-10.% / 5.0%</t>
+  </si>
+  <si>
+    <t>-20.% / 7.0%</t>
+  </si>
+  <si>
+    <t>-18.% / 7.9%</t>
+  </si>
+  <si>
+    <t>-15.% / 6.3%</t>
+  </si>
+  <si>
+    <t>-8.0% / 6.9%</t>
+  </si>
+  <si>
+    <t>-6.1% / 8.0%</t>
+  </si>
+  <si>
+    <t>-7.2% / 9.1%</t>
+  </si>
+  <si>
+    <t>-6.2% / 8.5%</t>
+  </si>
+  <si>
+    <t>-5.8% / 10.%</t>
+  </si>
+  <si>
+    <t>-3.4% / 10.%</t>
+  </si>
+  <si>
+    <t>-7.5% / 7.9%</t>
+  </si>
+  <si>
+    <t>-6.4% / 8.1%</t>
+  </si>
+  <si>
+    <t>-7.6% / 15.%</t>
+  </si>
+  <si>
+    <t>-8.6% / 13.%</t>
+  </si>
+  <si>
+    <t>-4.7% / 12.%</t>
+  </si>
+  <si>
+    <t>-5.1% / 5.6%</t>
+  </si>
+  <si>
+    <t>-6.4% / 11.%</t>
+  </si>
+  <si>
+    <t>-7.0% / 9.7%</t>
+  </si>
+  <si>
+    <t>-10.% / 7.9%</t>
+  </si>
+  <si>
+    <t>-6.3% / 9.2%</t>
+  </si>
+  <si>
+    <t>-7.4% / 8.9%</t>
+  </si>
+  <si>
+    <t>-5.8% / 8.6%</t>
+  </si>
+  <si>
+    <t>-7.2% / 7.9%</t>
+  </si>
+  <si>
+    <t>-7.2% / 1.6%</t>
+  </si>
+  <si>
+    <t>0.0% / 15.%</t>
+  </si>
+  <si>
+    <t>-7.8% / 5.9%</t>
+  </si>
+  <si>
+    <t>-6.9% / 12.%</t>
+  </si>
+  <si>
+    <t>-8.7% / 9.6%</t>
+  </si>
+  <si>
+    <t>-8.2% / 7.5%</t>
+  </si>
+  <si>
+    <t>-8.2% / 6.9%</t>
+  </si>
+  <si>
+    <t>-6.4% / 8.3%</t>
+  </si>
+  <si>
+    <t>-5.8% / 9.9%</t>
+  </si>
+  <si>
+    <t>-8.8% / 5.5%</t>
+  </si>
+  <si>
+    <t>-13.% / 8.5%</t>
+  </si>
+  <si>
+    <t>-5.0% / 7.4%</t>
+  </si>
+  <si>
+    <t>-3.9% / 9.2%</t>
+  </si>
+  <si>
+    <t>-4.4% / 9.0%</t>
+  </si>
+  <si>
+    <t>-16.% / 8.8%</t>
+  </si>
+  <si>
+    <t>-6.2% / 8.4%</t>
+  </si>
+  <si>
+    <t>-6.8% / 5.9%</t>
+  </si>
+  <si>
+    <t>-10.% / 6.3%</t>
+  </si>
+  <si>
+    <t>-7.7% / 8.0%</t>
+  </si>
+  <si>
+    <t>-9.1% / 7.1%</t>
+  </si>
+  <si>
+    <t>-9.8% / 8.1%</t>
+  </si>
+  <si>
+    <t>-6.1% / 9.9%</t>
+  </si>
+  <si>
+    <t>-5.7% / 9.0%</t>
+  </si>
+  <si>
+    <t>-0.6% / 10.%</t>
+  </si>
+  <si>
+    <t>-4.2% / 16.%</t>
+  </si>
+  <si>
+    <t>-0.6% / 11.%</t>
+  </si>
+  <si>
+    <t>-7.1% / 3.3%</t>
+  </si>
+  <si>
+    <t>-9.2% / 6.1%</t>
+  </si>
+  <si>
+    <t>-6.0% / 7.0%</t>
+  </si>
+  <si>
+    <t>-5.7% / 6.3%</t>
+  </si>
+  <si>
+    <t>-6.3% / 10.%</t>
+  </si>
+  <si>
+    <t>-7.4% / 7.3%</t>
+  </si>
+  <si>
+    <t>-6.0% / 10.%</t>
+  </si>
+  <si>
+    <t>-7.1% / 9.4%</t>
+  </si>
+  <si>
+    <t>-8.0% / 19.%</t>
+  </si>
+  <si>
+    <t>-6.0% / 16.%</t>
+  </si>
+  <si>
+    <t>-3.2% / 10.%</t>
+  </si>
+  <si>
+    <t>-4.7% / 9.7%</t>
+  </si>
+  <si>
+    <t>-6.1% / 5.7%</t>
+  </si>
+  <si>
+    <t>-6.4% / 6.1%</t>
+  </si>
+  <si>
+    <t>-6.6% / 7.9%</t>
+  </si>
+  <si>
+    <t>-8.5% / 5.5%</t>
+  </si>
+  <si>
+    <t>-4.8% / 7.0%</t>
+  </si>
+  <si>
+    <t>-5.9% / 9.0%</t>
+  </si>
+  <si>
+    <t>-4.8% / 17.%</t>
+  </si>
+  <si>
+    <t>-9.1% / 13.%</t>
+  </si>
+  <si>
+    <t>-5.4% / 5.9%</t>
+  </si>
+  <si>
+    <t>-4.2% / 9.7%</t>
+  </si>
+  <si>
+    <t>-7.2% / 5.5%</t>
+  </si>
+  <si>
+    <t>-4.0% / 5.8%</t>
+  </si>
+  <si>
+    <t>-7.8% / 5.0%</t>
+  </si>
+  <si>
+    <t>-7.8% / 7.2%</t>
+  </si>
+  <si>
+    <t>-5.1% / 10.%</t>
+  </si>
+  <si>
+    <t>-6.8% / 9.8%</t>
+  </si>
+  <si>
+    <t>-3.4% / 19.%</t>
+  </si>
+  <si>
+    <t>-3.6% / 5.2%</t>
+  </si>
+  <si>
+    <t>-2.3% / 23.%</t>
+  </si>
+  <si>
+    <t>-8.1% / 3.1%</t>
+  </si>
+  <si>
+    <t>-4.9% / 7.4%</t>
+  </si>
+  <si>
+    <t>-4.8% / 5.8%</t>
+  </si>
+  <si>
+    <t>-6.8% / 2.6%</t>
+  </si>
+  <si>
+    <t>-10.% / 1.8%</t>
+  </si>
+  <si>
+    <t>-8.8% / 2.6%</t>
+  </si>
+  <si>
+    <t>-8.0% / 1.5%</t>
+  </si>
+  <si>
+    <t>-8.0% / 5.7%</t>
+  </si>
+  <si>
+    <t>-2.3% / 3.4%</t>
+  </si>
+  <si>
+    <t>-8.0% / 11.%</t>
+  </si>
+  <si>
+    <t>-6.3% / 12.%</t>
+  </si>
+  <si>
+    <t>-6.8% / 1.3%</t>
+  </si>
+  <si>
+    <t>-10.% / 2.4%</t>
+  </si>
+  <si>
+    <t>-5.1% / 2.4%</t>
+  </si>
+  <si>
+    <t>-10.% / 3.9%</t>
+  </si>
+  <si>
+    <t>-0.1% / 8.6%</t>
+  </si>
+  <si>
+    <t>-16.% / 0.5%</t>
+  </si>
+  <si>
+    <t>-15.% / 0.7%</t>
+  </si>
+  <si>
+    <t>-5.1% / 5.0%</t>
+  </si>
+  <si>
+    <t>-2.5% / 5.5%</t>
+  </si>
+  <si>
+    <t>-18.% / 1.6%</t>
+  </si>
+  <si>
     <t>LONG Z-SCORE</t>
   </si>
   <si>
     <t>LONG ZS KEY</t>
   </si>
   <si>
-    <t>NEXT_5D_HIGH</t>
-  </si>
-  <si>
-    <t>NEXT_5D_LOW</t>
-  </si>
-  <si>
     <t>NEXT_5D_RETURN</t>
   </si>
   <si>
+    <t>NEXT_ND_MAX_DOWN</t>
+  </si>
+  <si>
+    <t>NEXT_ND_MAX_UP</t>
+  </si>
+  <si>
     <t>NYMOCNCL Index</t>
   </si>
   <si>
     <t>NYMOCNCS Index</t>
+  </si>
+  <si>
+    <t>NYMOCOIN Index</t>
   </si>
   <si>
     <t>SHORT Z-SCORE</t>
@@ -767,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9">
         <v>15</v>
@@ -840,10 +1225,10 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -1030,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0182909402686482</v>
+        <v>-0.315518719634181</v>
       </c>
       <c r="E2">
-        <v>-0.0325355272999251</v>
+        <v>0.0478683620044877</v>
       </c>
       <c r="F2">
-        <v>-0.0157631680123029</v>
+        <v>0.0841983852364474</v>
       </c>
       <c r="N2">
-        <v>-0.068370607028754</v>
+        <v>-0.078594249201278</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1047,34 +1432,34 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.0609744779582366</v>
+        <v>-0.128723897911833</v>
       </c>
       <c r="E3">
-        <v>-0.103765843895931</v>
+        <v>-0.0974354434487857</v>
       </c>
       <c r="F3">
-        <v>-0.079087452471483</v>
+        <v>0.0349809885931558</v>
       </c>
       <c r="G3">
-        <v>-0.00251592604533785</v>
+        <v>-0.0080836492601199</v>
       </c>
       <c r="H3">
-        <v>0.0188586447055073</v>
+        <v>0.0568683667273637</v>
       </c>
       <c r="I3">
-        <v>0.0321190755973364</v>
+        <v>0.0738347042694869</v>
       </c>
       <c r="J3">
-        <v>0.0196174212345399</v>
+        <v>0.0757915009970646</v>
       </c>
       <c r="K3">
-        <v>-0.0120057488870023</v>
+        <v>0.0203003625859208</v>
       </c>
       <c r="M3">
-        <v>0.037869822485207</v>
+        <v>0.0406311637080867</v>
       </c>
       <c r="O3">
-        <v>-0.0285714285714286</v>
+        <v>-0.127329192546584</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1082,37 +1467,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.00484424833149844</v>
+        <v>0.0155813575351825</v>
       </c>
       <c r="D4">
-        <v>-0.00855192017733086</v>
+        <v>-0.105857111906343</v>
       </c>
       <c r="E4">
-        <v>-0.0147318895729462</v>
+        <v>-0.144414695245708</v>
       </c>
       <c r="F4">
-        <v>0.0481579643824028</v>
+        <v>0.0737451276922138</v>
       </c>
       <c r="G4">
-        <v>0.0289097656148144</v>
+        <v>0.0512794406084071</v>
       </c>
       <c r="H4">
-        <v>-0.0915829915365773</v>
+        <v>-0.0890634347703189</v>
       </c>
       <c r="I4">
-        <v>-0.0259863151745983</v>
+        <v>-0.00824081880550703</v>
       </c>
       <c r="J4">
-        <v>0.00994202449910425</v>
+        <v>0.065096349396286</v>
       </c>
       <c r="K4">
-        <v>0.032667611351802</v>
+        <v>0.0544253501048429</v>
       </c>
       <c r="L4">
-        <v>-0.0401648060942979</v>
+        <v>-0.0220711758539569</v>
       </c>
       <c r="M4">
-        <v>0.0218669242855721</v>
+        <v>0.0345038829268295</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1120,40 +1505,40 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.000422753779916241</v>
+        <v>-0.0528945170568584</v>
       </c>
       <c r="D5">
-        <v>-0.0386036160686926</v>
+        <v>-0.0174214287428613</v>
       </c>
       <c r="E5">
-        <v>-0.0198903067057467</v>
+        <v>-0.101554290175986</v>
       </c>
       <c r="F5">
-        <v>0.00723646065300834</v>
+        <v>0.00482016653848933</v>
       </c>
       <c r="G5">
-        <v>-0.00452112162558971</v>
+        <v>0.0118841590610747</v>
       </c>
       <c r="H5">
-        <v>0.014234835772334</v>
+        <v>0.0146180398718652</v>
       </c>
       <c r="I5">
-        <v>-0.00342329166649909</v>
+        <v>-0.0265345122271596</v>
       </c>
       <c r="J5">
-        <v>-0.0155382922166647</v>
+        <v>0.00733937702667308</v>
       </c>
       <c r="K5">
-        <v>0.0335145591193267</v>
+        <v>0.0553939423472554</v>
       </c>
       <c r="L5">
-        <v>0.00819858139938816</v>
+        <v>0.0309477562528968</v>
       </c>
       <c r="M5">
-        <v>-0.0292898207709739</v>
+        <v>-0.0430392262210862</v>
       </c>
       <c r="N5">
-        <v>-0.0426409903713892</v>
+        <v>-0.149472718936268</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1161,37 +1546,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.0413297533779813</v>
+        <v>0.0904161926765217</v>
       </c>
       <c r="D6">
-        <v>0.013319378059028</v>
+        <v>0.0197428425767704</v>
       </c>
       <c r="E6">
-        <v>0.00545078957888305</v>
+        <v>-0.0152330393503507</v>
       </c>
       <c r="F6">
-        <v>0.0141853214720968</v>
+        <v>0.0397683974566286</v>
       </c>
       <c r="G6">
-        <v>-0.00737634747905269</v>
+        <v>-0.0113962783261582</v>
       </c>
       <c r="H6">
-        <v>-0.00641756949576674</v>
+        <v>-0.0037065431917079</v>
       </c>
       <c r="I6">
-        <v>0.00200025689720717</v>
+        <v>0.00826410647601447</v>
       </c>
       <c r="J6">
-        <v>0.00346844965395862</v>
+        <v>0.00485719214385234</v>
       </c>
       <c r="K6">
-        <v>0.00228384181976273</v>
+        <v>-0.0199737121886311</v>
       </c>
       <c r="L6">
-        <v>-0.00685176471808677</v>
+        <v>0.010669741202456</v>
       </c>
       <c r="M6">
-        <v>-0.0300568074383779</v>
+        <v>-0.0539028720600252</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1199,34 +1584,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.131540342298289</v>
+        <v>0.110757946210269</v>
       </c>
       <c r="D7">
-        <v>-0.0289066265185363</v>
+        <v>-0.0917496073067288</v>
       </c>
       <c r="E7">
-        <v>0.00494664965282416</v>
+        <v>0.0267576800411007</v>
       </c>
       <c r="F7">
-        <v>0.0168084675522048</v>
+        <v>0.025212697807571</v>
       </c>
       <c r="G7">
-        <v>-0.00585968660372309</v>
+        <v>0.0212000353106865</v>
       </c>
       <c r="H7">
-        <v>-0.00309781215618572</v>
+        <v>-0.0286443356610224</v>
       </c>
       <c r="I7">
-        <v>0.0167917276171179</v>
+        <v>0.00630310947189491</v>
       </c>
       <c r="J7">
-        <v>0.022664877914229</v>
+        <v>0.014302327272435</v>
       </c>
       <c r="K7">
-        <v>0.0095196631614327</v>
+        <v>0.0213790358069285</v>
       </c>
       <c r="L7">
-        <v>-0.0204397765723743</v>
+        <v>-0.0157662505676124</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1234,34 +1619,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-0.0207994938440592</v>
+        <v>-0.0140945953504316</v>
       </c>
       <c r="D8">
-        <v>-0.012141854110048</v>
+        <v>-0.0273702874773028</v>
       </c>
       <c r="E8">
-        <v>-0.0104814159677341</v>
+        <v>0.0254505971051811</v>
       </c>
       <c r="F8">
-        <v>-0.01150211002617</v>
+        <v>-0.00896998497759024</v>
       </c>
       <c r="G8">
-        <v>-0.00504152366931525</v>
+        <v>-0.0179832960032892</v>
       </c>
       <c r="H8">
-        <v>-0.00156845876379401</v>
+        <v>0.0132028131975137</v>
       </c>
       <c r="I8">
-        <v>0.0157317536991491</v>
+        <v>0.040590114991125</v>
       </c>
       <c r="J8">
-        <v>-0.0459975265014952</v>
+        <v>0.00132698831458909</v>
       </c>
       <c r="K8">
-        <v>-0.003662263318976</v>
+        <v>-0.0249138485712052</v>
       </c>
       <c r="L8">
-        <v>-0.0297786360398981</v>
+        <v>-0.0637917475318335</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1269,40 +1654,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-0.030555043544358</v>
+        <v>0.0032950700050966</v>
       </c>
       <c r="D9">
-        <v>0.00565610168523573</v>
+        <v>-5.42036015873326e-05</v>
       </c>
       <c r="E9">
-        <v>-0.00792765168595037</v>
+        <v>0.0284423277474931</v>
       </c>
       <c r="F9">
-        <v>0.011682040186868</v>
+        <v>0.0341217072704433</v>
       </c>
       <c r="G9">
-        <v>0.00069421872669384</v>
+        <v>0.0380071246981189</v>
       </c>
       <c r="H9">
-        <v>-0.00153117185000706</v>
+        <v>-0.0291903835910888</v>
       </c>
       <c r="I9">
-        <v>-0.00321449620487513</v>
+        <v>-0.00634985702775045</v>
       </c>
       <c r="J9">
-        <v>0.0102972760497801</v>
+        <v>0.000900280896317166</v>
       </c>
       <c r="K9">
-        <v>0.00244136115915971</v>
+        <v>-0.00273989121038996</v>
       </c>
       <c r="L9">
-        <v>-0.0571874999999999</v>
+        <v>-0.0296875</v>
       </c>
       <c r="M9">
-        <v>-0.0332705586942875</v>
+        <v>-0.0367859384808538</v>
       </c>
       <c r="N9">
-        <v>-0.00789419725240936</v>
+        <v>-0.0411113389378717</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1310,37 +1695,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.00795904093979222</v>
+        <v>0.0557151457726489</v>
       </c>
       <c r="C10">
-        <v>-0.0280536717606671</v>
+        <v>-0.0193489581455881</v>
       </c>
       <c r="D10">
-        <v>0.0499615740797048</v>
+        <v>0.0511866706237189</v>
       </c>
       <c r="E10">
-        <v>0.0250140882629742</v>
+        <v>0.0391030159427445</v>
       </c>
       <c r="F10">
-        <v>0.00608966552145655</v>
+        <v>-0.000836171259706475</v>
       </c>
       <c r="G10">
-        <v>0.0180423961611887</v>
+        <v>0.0338737538883321</v>
       </c>
       <c r="H10">
-        <v>-0.0119494552930112</v>
+        <v>-0.0173311548445608</v>
       </c>
       <c r="I10">
-        <v>0.0245237235114983</v>
+        <v>0.028484143743033</v>
       </c>
       <c r="J10">
-        <v>-0.0335817754600297</v>
+        <v>0.0198655360329391</v>
       </c>
       <c r="K10">
-        <v>0.0285130015623549</v>
+        <v>0.0363797938144053</v>
       </c>
       <c r="L10">
-        <v>0.0112903225806451</v>
+        <v>-0.0486895161290323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1348,34 +1733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.00500000000000012</v>
+        <v>-0.0832142857142857</v>
       </c>
       <c r="D11">
-        <v>-0.0513894384296915</v>
+        <v>-0.0166690644762554</v>
       </c>
       <c r="E11">
-        <v>0.0204926822724321</v>
+        <v>0.0331041577638922</v>
       </c>
       <c r="F11">
-        <v>0.00206447774361217</v>
+        <v>0.0277193730773451</v>
       </c>
       <c r="G11">
-        <v>0.00330836896162345</v>
+        <v>0.000357676569386345</v>
       </c>
       <c r="H11">
-        <v>0.00444258403245471</v>
+        <v>0.04497152056798</v>
       </c>
       <c r="I11">
-        <v>0.0228578150202295</v>
+        <v>0.0305656897955479</v>
       </c>
       <c r="J11">
-        <v>0.0124114756676232</v>
+        <v>0.0151902207984069</v>
       </c>
       <c r="K11">
-        <v>0.00883638094442115</v>
+        <v>0.0319712108272334</v>
       </c>
       <c r="L11">
-        <v>0.0015692854147169</v>
+        <v>0.00038805281721177</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1383,40 +1768,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.0355303810504634</v>
+        <v>-0.0497425334706488</v>
       </c>
       <c r="C12">
-        <v>0.0217869584373668</v>
+        <v>0.00301051310043504</v>
       </c>
       <c r="D12">
-        <v>0.0184580764806631</v>
+        <v>0.0260575995429437</v>
       </c>
       <c r="E12">
-        <v>0.0183928089198694</v>
+        <v>0.021832201546783</v>
       </c>
       <c r="F12">
-        <v>-0.00182778236568823</v>
+        <v>0.0195681128008805</v>
       </c>
       <c r="G12">
-        <v>-0.012697745938099</v>
+        <v>-0.00318699662492911</v>
       </c>
       <c r="H12">
-        <v>0.0234657650475315</v>
+        <v>0.0156500185029979</v>
       </c>
       <c r="I12">
-        <v>0.0107080419580421</v>
+        <v>0.147508741258741</v>
       </c>
       <c r="J12">
-        <v>0.0255221311995131</v>
+        <v>0.139872993580817</v>
       </c>
       <c r="K12">
-        <v>0.0663466661056039</v>
+        <v>0.169935246609142</v>
       </c>
       <c r="L12">
-        <v>0.011225658648339</v>
+        <v>-0.0065292096219931</v>
       </c>
       <c r="M12">
-        <v>-0.00277575034056754</v>
+        <v>-0.100408685930948</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1424,37 +1809,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.0325581395348837</v>
+        <v>0.131782945736434</v>
       </c>
       <c r="D13">
-        <v>0.0152456582999405</v>
+        <v>0.0251137422038944</v>
       </c>
       <c r="E13">
-        <v>0.00347017496327435</v>
+        <v>0.0101818602681733</v>
       </c>
       <c r="F13">
-        <v>-0.029317697228145</v>
+        <v>-0.0708955223880597</v>
       </c>
       <c r="G13">
-        <v>0.0134264232008592</v>
+        <v>0.0722341568206228</v>
       </c>
       <c r="H13">
-        <v>0.0433248659328254</v>
+        <v>0.050381033022862</v>
       </c>
       <c r="I13">
-        <v>0.0300692662048672</v>
+        <v>0.0740981919338045</v>
       </c>
       <c r="J13">
-        <v>-0.0421160513259877</v>
+        <v>0.0836890304648429</v>
       </c>
       <c r="K13">
-        <v>0.0104602510460252</v>
+        <v>0.0324267782426779</v>
       </c>
       <c r="M13">
-        <v>0.053284435335994</v>
+        <v>0.0820839175924928</v>
       </c>
       <c r="N13">
-        <v>-0.0151885289431759</v>
+        <v>0.0549123738714816</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1462,19 +1847,19 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.049625468164794</v>
+        <v>0.0070224719101124</v>
       </c>
       <c r="F14">
-        <v>0.0764872521246458</v>
+        <v>0.0679886685552409</v>
       </c>
       <c r="G14">
-        <v>0.034951513198371</v>
+        <v>0.0520187371621468</v>
       </c>
       <c r="H14">
-        <v>0.0686344238975818</v>
+        <v>0.109174964438122</v>
       </c>
       <c r="K14">
-        <v>0.0530058177117001</v>
+        <v>0.201034259857789</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1482,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-0.033001808318264</v>
+        <v>-0.0375226039783003</v>
       </c>
     </row>
   </sheetData>
@@ -1550,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1570,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -1605,28 +1990,28 @@
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E4">
         <v>0.4</v>
       </c>
       <c r="F4">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.333333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L4">
         <v>0.333333333333333</v>
@@ -1643,31 +2028,31 @@
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.571428571428571</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="F5">
         <v>0.454545454545455</v>
       </c>
       <c r="G5">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="H5">
-        <v>0.631578947368421</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I5">
-        <v>0.538461538461538</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="J5">
-        <v>0.333333333333333</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="L5">
-        <v>0.777777777777778</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5">
         <v>0.333333333333333</v>
@@ -1684,34 +2069,34 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="F6">
-        <v>0.631578947368421</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="G6">
-        <v>0.652173913043478</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="H6">
-        <v>0.379310344827586</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I6">
         <v>0.5</v>
       </c>
       <c r="J6">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="K6">
-        <v>0.428571428571429</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L6">
-        <v>0.444444444444444</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="M6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1722,22 +2107,22 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="F7">
-        <v>0.65625</v>
+        <v>0.5625</v>
       </c>
       <c r="G7">
-        <v>0.46875</v>
+        <v>0.625</v>
       </c>
       <c r="H7">
-        <v>0.481481481481481</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="I7">
-        <v>0.764705882352941</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="J7">
         <v>0.727272727272727</v>
@@ -1760,25 +2145,25 @@
         <v>0.454545454545455</v>
       </c>
       <c r="E8">
-        <v>0.409090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.521739130434783</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="G8">
-        <v>0.518518518518518</v>
+        <v>0.37037037037037</v>
       </c>
       <c r="H8">
+        <v>0.625</v>
+      </c>
+      <c r="I8">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J8">
         <v>0.5</v>
       </c>
-      <c r="I8">
-        <v>0.714285714285714</v>
-      </c>
-      <c r="J8">
-        <v>0.166666666666667</v>
-      </c>
       <c r="K8">
-        <v>0.533333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="L8">
         <v>0.25</v>
@@ -1789,31 +2174,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="F9">
-        <v>0.588235294117647</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="G9">
-        <v>0.590909090909091</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="H9">
+        <v>0.352941176470588</v>
+      </c>
+      <c r="I9">
         <v>0.529411764705882</v>
       </c>
-      <c r="I9">
-        <v>0.444444444444444</v>
-      </c>
       <c r="J9">
-        <v>0.666666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="K9">
-        <v>0.727272727272727</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1830,37 +2215,37 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.25</v>
       </c>
       <c r="D10">
         <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.857142857142857</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="F10">
         <v>0.533333333333333</v>
       </c>
       <c r="G10">
-        <v>0.571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="H10">
-        <v>0.545454545454545</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I10">
-        <v>0.733333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K10">
         <v>0.666666666666667</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1868,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1877,22 +2262,22 @@
         <v>0.6</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G11">
-        <v>0.545454545454545</v>
+        <v>0.7</v>
       </c>
       <c r="H11">
-        <v>0.555555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="I11">
         <v>0.625</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K11">
-        <v>0.555555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="L11">
         <v>0.5</v>
@@ -1909,10 +2294,10 @@
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
         <v>0.428571428571429</v>
@@ -1933,10 +2318,10 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1962,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J13">
         <v>0.5</v>
@@ -1974,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1982,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2012,42 +2397,565 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>37477</v>
       </c>
@@ -2058,13 +2966,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>29.45</v>
+        <v>0.100743494423792</v>
       </c>
       <c r="E2">
-        <v>26.48</v>
+        <v>-0.0156133828996282</v>
       </c>
       <c r="F2">
-        <v>0.0903345724907063</v>
+        <v>0.127137546468401</v>
       </c>
       <c r="G2">
         <v>40776</v>
@@ -2073,13 +2981,16 @@
         <v>24000</v>
       </c>
       <c r="I2">
+        <v>679636</v>
+      </c>
+      <c r="J2">
         <v>1.5107772927503</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>37484</v>
       </c>
@@ -2090,13 +3001,13 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>30.32</v>
+        <v>0.0170590242238144</v>
       </c>
       <c r="E3">
-        <v>28.34</v>
+        <v>-0.0576595018764926</v>
       </c>
       <c r="F3">
-        <v>-0.0232002729443875</v>
+        <v>0.0344592289321051</v>
       </c>
       <c r="G3">
         <v>47310</v>
@@ -2105,13 +3016,16 @@
         <v>28967</v>
       </c>
       <c r="I3">
+        <v>736262</v>
+      </c>
+      <c r="J3">
         <v>1.98928182613865</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>38219</v>
       </c>
@@ -2122,13 +3036,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>47.22</v>
+        <v>-0.0260628070925015</v>
       </c>
       <c r="E4">
-        <v>42.5</v>
+        <v>-0.117709891048921</v>
       </c>
       <c r="F4">
-        <v>-0.0775475325785089</v>
+        <v>0.00875881221961117</v>
       </c>
       <c r="G4">
         <v>141883</v>
@@ -2137,13 +3051,16 @@
         <v>59089</v>
       </c>
       <c r="I4">
+        <v>1079690</v>
+      </c>
+      <c r="J4">
         <v>1.87890143368644</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>38261</v>
       </c>
@@ -2154,13 +3071,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>53.4</v>
+        <v>0.0372745490981963</v>
       </c>
       <c r="E5">
-        <v>49.44</v>
+        <v>-0.00921843687374746</v>
       </c>
       <c r="F5">
-        <v>0.0683366733466935</v>
+        <v>0.11563126252505</v>
       </c>
       <c r="G5">
         <v>134812</v>
@@ -2169,13 +3086,16 @@
         <v>61854</v>
       </c>
       <c r="I5">
+        <v>1095386</v>
+      </c>
+      <c r="J5">
         <v>1.60898109270065</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>38478</v>
       </c>
@@ -2186,13 +3106,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>53.1</v>
+        <v>0.0731279251170047</v>
       </c>
       <c r="E6">
-        <v>47.75</v>
+        <v>-0.0990639625585022</v>
       </c>
       <c r="F6">
-        <v>-0.0508970358814352</v>
+        <v>0.0803432137285491</v>
       </c>
       <c r="G6">
         <v>114966</v>
@@ -2201,13 +3121,16 @@
         <v>67883</v>
       </c>
       <c r="I6">
+        <v>1322143</v>
+      </c>
+      <c r="J6">
         <v>1.85818085839423</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>38772</v>
       </c>
@@ -2218,13 +3141,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>63.79</v>
+        <v>0.0232484076433122</v>
       </c>
       <c r="E7">
-        <v>60.3</v>
+        <v>-0.0565286624203821</v>
       </c>
       <c r="F7">
-        <v>0.0138535031847133</v>
+        <v>0.0310509554140128</v>
       </c>
       <c r="G7">
         <v>124985</v>
@@ -2233,13 +3156,16 @@
         <v>98814</v>
       </c>
       <c r="I7">
+        <v>1475737</v>
+      </c>
+      <c r="J7">
         <v>1.57354045047279</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>39045</v>
       </c>
@@ -2250,13 +3176,13 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>63.77</v>
+        <v>0.0420771414259475</v>
       </c>
       <c r="E8">
-        <v>59.26</v>
+        <v>-0.0105192853564869</v>
       </c>
       <c r="F8">
-        <v>0.0591083653364501</v>
+        <v>0.0711304057438638</v>
       </c>
       <c r="G8">
         <v>177890</v>
@@ -2265,13 +3191,16 @@
         <v>136589</v>
       </c>
       <c r="I8">
+        <v>1854012</v>
+      </c>
+      <c r="J8">
         <v>1.56223898480148</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>40746</v>
       </c>
@@ -2282,13 +3211,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>100.62</v>
+        <v>-0.17542101042502</v>
       </c>
       <c r="E9">
-        <v>94.95</v>
+        <v>-0.241078588612671</v>
       </c>
       <c r="F9">
-        <v>-0.0406976744186047</v>
+        <v>0.00862068965517238</v>
       </c>
       <c r="G9">
         <v>335246</v>
@@ -2297,13 +3226,16 @@
         <v>132972</v>
       </c>
       <c r="I9">
+        <v>2624612</v>
+      </c>
+      <c r="J9">
         <v>1.55279730804052</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>40753</v>
       </c>
@@ -2314,13 +3246,13 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>98.6</v>
+        <v>-0.112577962577963</v>
       </c>
       <c r="E10">
-        <v>82.87</v>
+        <v>-0.212993762993763</v>
       </c>
       <c r="F10">
-        <v>-0.0968814968814969</v>
+        <v>0.0249480249480249</v>
       </c>
       <c r="G10">
         <v>342507</v>
@@ -2329,13 +3261,16 @@
         <v>135432</v>
       </c>
       <c r="I10">
+        <v>2652034</v>
+      </c>
+      <c r="J10">
         <v>1.51881120603742</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>41061</v>
       </c>
@@ -2346,13 +3281,13 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>87.03</v>
+        <v>0.0241080038572805</v>
       </c>
       <c r="E11">
-        <v>81.21</v>
+        <v>-0.0684667309546769</v>
       </c>
       <c r="F11">
-        <v>0.0137415621986499</v>
+        <v>0.0490597878495662</v>
       </c>
       <c r="G11">
         <v>347026</v>
@@ -2361,13 +3296,16 @@
         <v>113617</v>
       </c>
       <c r="I11">
+        <v>2306964</v>
+      </c>
+      <c r="J11">
         <v>1.52771001615245</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>42594</v>
       </c>
@@ -2377,15 +3315,6 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>48.65</v>
-      </c>
-      <c r="E12">
-        <v>44.38</v>
-      </c>
-      <c r="F12">
-        <v>0.0802413947250782</v>
-      </c>
       <c r="G12">
         <v>566261</v>
       </c>
@@ -2393,9 +3322,12 @@
         <v>287646</v>
       </c>
       <c r="I12">
+        <v>2623436</v>
+      </c>
+      <c r="J12">
         <v>1.7113771512522</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
     </row>
